--- a/TEMPLATE_FILES/ВУНЦ=ОТКАЗАНО.xlsx
+++ b/TEMPLATE_FILES/ВУНЦ=ОТКАЗАНО.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TEMPLATE_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9400A3F-9D2E-4E77-BBC2-B10594F3C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21076D55-19CE-4ABE-87AC-69BE6B1A9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>№ п/п</t>
   </si>
@@ -125,21 +125,9 @@
     <t>Категория профессиональной пригодности</t>
   </si>
   <si>
-    <t>2 предмет</t>
-  </si>
-  <si>
-    <t>3 предмет</t>
-  </si>
-  <si>
-    <t>4 предмет*</t>
-  </si>
-  <si>
     <t>Доп.испытание</t>
   </si>
   <si>
-    <t>1 предмет</t>
-  </si>
-  <si>
     <t>Результаты индивидуальных достижений</t>
   </si>
   <si>
@@ -191,22 +179,52 @@
     <t>${table:items.quota}</t>
   </si>
   <si>
-    <t>${table:items.subject_5}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_1}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_2}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_3}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_4}</t>
-  </si>
-  <si>
     <t>${table:items.expulsion}</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>${table:items.math}</t>
+  </si>
+  <si>
+    <t>${table:items.rus}</t>
+  </si>
+  <si>
+    <t>${table:items.phiz}</t>
+  </si>
+  <si>
+    <t>${table:items.inf}</t>
+  </si>
+  <si>
+    <t>${table:items.geo}</t>
+  </si>
+  <si>
+    <t>${table:items.hist}</t>
+  </si>
+  <si>
+    <t>${table:items.obsh}</t>
+  </si>
+  <si>
+    <t>${table:items.space}</t>
   </si>
 </sst>
 </file>
@@ -561,7 +579,118 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_NABOR2005" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1285,7 +1414,7 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
@@ -1355,38 +1484,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A2:Q29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21" dataCellStyle="Обычный_NABOR2005">
-  <autoFilter ref="A2:Q29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ п/п" dataDxfId="20" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Фамилия, имя, отчество " dataDxfId="19" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Дата рождения  " dataDxfId="18" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Военный комиссариат (СВУ, в/ч)" dataDxfId="17" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Вид (род, ову), военный округ" dataDxfId="16" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Образование" dataDxfId="15" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Особые права (приемущества) при приеме" dataDxfId="14" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Категория профессиональной пригодности" dataDxfId="13" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1 предмет" dataDxfId="12" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2 предмет" dataDxfId="11" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3 предмет" dataDxfId="10" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="4 предмет*" dataDxfId="9" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Доп.испытание" dataDxfId="8" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Уровень физической подготовленности" dataDxfId="7" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Результаты индивидуальных достижений" dataDxfId="6" dataCellStyle="Обычный_NABOR2005"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Сумма баллов" dataDxfId="5" dataCellStyle="Обычный_NABOR2005">
-      <calculatedColumnFormula>SUM(I3:O3)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="A2:T29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" dataCellStyle="Обычный_NABOR2005">
+  <autoFilter ref="A2:T29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№ п/п" dataDxfId="23" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Фамилия, имя, отчество " dataDxfId="22" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Дата рождения  " dataDxfId="21" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Военный комиссариат (СВУ, в/ч)" dataDxfId="20" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Вид (род, ову), военный округ" dataDxfId="19" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Образование" dataDxfId="18" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Особые права (приемущества) при приеме" dataDxfId="17" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Категория профессиональной пригодности" dataDxfId="16" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Математика" dataDxfId="15" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Русский язык" dataDxfId="14" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Физика" dataDxfId="13" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="18" xr3:uid="{06168AF9-D972-42A2-9BB7-1E243600C2FF}" name="Информатика" dataDxfId="2" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="19" xr3:uid="{A9B79E9F-EED6-4DA5-B9B7-6C15477E9787}" name="География" dataDxfId="1" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="20" xr3:uid="{EF1BF08D-FDEE-4D53-9DFC-2BFAAAF15122}" name="История" dataDxfId="0" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Обществознание" dataDxfId="12" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Доп.испытание" dataDxfId="11" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Уровень физической подготовленности" dataDxfId="10" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Результаты индивидуальных достижений" dataDxfId="9" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Сумма баллов" dataDxfId="8" dataCellStyle="Обычный_NABOR2005">
+      <calculatedColumnFormula>SUM(I3:R3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Причина отказа" dataDxfId="4" dataCellStyle="Обычный_NABOR2005"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Причина отказа" dataDxfId="7" dataCellStyle="Обычный_NABOR2005"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Отказ_Т" displayName="Отказ_Т" ref="B1:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Отказ_Т" displayName="Отказ_Т" ref="B1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B1:B11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отказ" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отказ" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1716,10 +1848,10 @@
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" topLeftCell="C1" colorId="32" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" colorId="32" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1731,14 +1863,14 @@
     <col min="5" max="5" width="10.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="29.44140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="29.44140625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:21" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1764,90 +1896,108 @@
         <v>15</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="Q2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="T2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="G3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="I3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="S3" s="29">
+        <f>SUM(I3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="29">
-        <f>SUM(I3:O3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1863,11 +2013,14 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1883,11 +2036,14 @@
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -1903,11 +2059,14 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -1923,11 +2082,14 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -1943,10 +2105,13 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -1962,10 +2127,13 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -1981,10 +2149,13 @@
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2000,10 +2171,13 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -2019,10 +2193,13 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2038,10 +2215,13 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2057,10 +2237,13 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2076,10 +2259,13 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -2095,10 +2281,13 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -2114,10 +2303,13 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -2133,10 +2325,13 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -2152,10 +2347,13 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -2171,10 +2369,13 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -2190,10 +2391,13 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -2209,10 +2413,13 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -2228,10 +2435,13 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -2247,10 +2457,13 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -2266,10 +2479,13 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -2285,10 +2501,13 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -2304,10 +2523,13 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -2323,10 +2545,13 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2342,8 +2567,11 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2351,7 +2579,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G7 G9:G29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Отказ</formula1>
     </dataValidation>
   </dataValidations>
@@ -2384,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2622,7 @@
     </row>
     <row r="3" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,12 +2637,12 @@
     </row>
     <row r="6" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,12 +2657,12 @@
     </row>
     <row r="10" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
